--- a/GroupAssigning.xlsx
+++ b/GroupAssigning.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Group 1</t>
   </si>
@@ -101,6 +101,18 @@
   </si>
   <si>
     <t>createNewAccount</t>
+  </si>
+  <si>
+    <t>Account</t>
+  </si>
+  <si>
+    <t>getOwnerFullName</t>
+  </si>
+  <si>
+    <t>addNewTransaction</t>
+  </si>
+  <si>
+    <t>getTransactionInfo</t>
   </si>
 </sst>
 </file>
@@ -136,7 +148,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -145,6 +157,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,11 +515,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -519,7 +534,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,10 +545,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -551,7 +566,6 @@
         <v>22</v>
       </c>
       <c r="B3" s="1">
-        <f ca="1">RANDBETWEEN(1,3)</f>
         <v>1</v>
       </c>
     </row>
@@ -560,7 +574,6 @@
         <v>21</v>
       </c>
       <c r="B4" s="2">
-        <f t="shared" ref="B4:B7" ca="1" si="0">RANDBETWEEN(1,3)</f>
         <v>3</v>
       </c>
     </row>
@@ -569,7 +582,6 @@
         <v>20</v>
       </c>
       <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -578,7 +590,6 @@
         <v>23</v>
       </c>
       <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -587,7 +598,6 @@
         <v>24</v>
       </c>
       <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -601,12 +611,70 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="5"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GroupAssigning.xlsx
+++ b/GroupAssigning.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9525" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Groupings" sheetId="1" r:id="rId1"/>
     <sheet name="Bank Class" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Account" sheetId="3" r:id="rId3"/>
+    <sheet name="AccountLauncher" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Group 1</t>
   </si>
@@ -113,6 +114,27 @@
   </si>
   <si>
     <t>getTransactionInfo</t>
+  </si>
+  <si>
+    <t>isLoggedIn</t>
+  </si>
+  <si>
+    <t>accountLogin</t>
+  </si>
+  <si>
+    <t>selectBank</t>
+  </si>
+  <si>
+    <t>setLogSession</t>
+  </si>
+  <si>
+    <t>destroyLogSession</t>
+  </si>
+  <si>
+    <t>checkCredentials</t>
+  </si>
+  <si>
+    <t>getLoggedAccount</t>
   </si>
 </sst>
 </file>
@@ -148,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -157,6 +179,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -515,11 +540,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -533,7 +558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -545,10 +570,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -614,7 +639,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,10 +648,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -670,6 +695,97 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="5">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GroupAssigning.xlsx
+++ b/GroupAssigning.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9525" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9525" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Groupings" sheetId="1" r:id="rId1"/>
     <sheet name="Bank Class" sheetId="2" r:id="rId2"/>
     <sheet name="Account" sheetId="3" r:id="rId3"/>
     <sheet name="AccountLauncher" sheetId="4" r:id="rId4"/>
+    <sheet name="SavingsAccount " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Group 1</t>
   </si>
@@ -135,6 +136,24 @@
   </si>
   <si>
     <t>getLoggedAccount</t>
+  </si>
+  <si>
+    <t>AccountLauncher</t>
+  </si>
+  <si>
+    <t>SavingsAccount</t>
+  </si>
+  <si>
+    <t>getAccountBalanceStatement</t>
+  </si>
+  <si>
+    <t>hasEnoughBalance</t>
+  </si>
+  <si>
+    <t>insufficientBalance</t>
+  </si>
+  <si>
+    <t>adjustAccountBalance</t>
   </si>
 </sst>
 </file>
@@ -170,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +198,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -540,11 +562,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -570,10 +592,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -648,10 +670,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -708,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,10 +740,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="6"/>
+      <c r="A1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -786,6 +808,88 @@
       <c r="B9" s="5">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="7"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GroupAssigning.xlsx
+++ b/GroupAssigning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9525" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9525" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Groupings" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,10 @@
     <sheet name="Account" sheetId="3" r:id="rId3"/>
     <sheet name="AccountLauncher" sheetId="4" r:id="rId4"/>
     <sheet name="SavingsAccount " sheetId="5" r:id="rId5"/>
+    <sheet name="CreditAccount" sheetId="6" r:id="rId6"/>
+    <sheet name="SavingsAccountLauncher" sheetId="7" r:id="rId7"/>
+    <sheet name="CreditAccountLauncher" sheetId="8" r:id="rId8"/>
+    <sheet name="BankLauncher" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>Group 1</t>
   </si>
@@ -154,6 +158,96 @@
   </si>
   <si>
     <t>adjustAccountBalance</t>
+  </si>
+  <si>
+    <t>CreditAccount</t>
+  </si>
+  <si>
+    <t>getLoanStatement</t>
+  </si>
+  <si>
+    <t>canCredit</t>
+  </si>
+  <si>
+    <t>adjustLoanAmount</t>
+  </si>
+  <si>
+    <t>SavingsAccountLauncher</t>
+  </si>
+  <si>
+    <t>savingsAccountInit</t>
+  </si>
+  <si>
+    <t>withdrawProcess</t>
+  </si>
+  <si>
+    <t>fundTransferProcess</t>
+  </si>
+  <si>
+    <t>depositProcess</t>
+  </si>
+  <si>
+    <t>CreditAccountLauncher</t>
+  </si>
+  <si>
+    <t>creditAccountInit</t>
+  </si>
+  <si>
+    <t>creditPaymentProcess</t>
+  </si>
+  <si>
+    <t>creditRecompense</t>
+  </si>
+  <si>
+    <t>BankLauncher</t>
+  </si>
+  <si>
+    <t>isLogged</t>
+  </si>
+  <si>
+    <t>bankInit</t>
+  </si>
+  <si>
+    <t>newAccounts</t>
+  </si>
+  <si>
+    <t>bankLogin</t>
+  </si>
+  <si>
+    <t>logout</t>
+  </si>
+  <si>
+    <t>createNewBank</t>
+  </si>
+  <si>
+    <t>showBanksMenu</t>
+  </si>
+  <si>
+    <t>addBank</t>
+  </si>
+  <si>
+    <t>getBank</t>
+  </si>
+  <si>
+    <t>findAccount</t>
+  </si>
+  <si>
+    <t>bankSize</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
+    <t>March 14, evening</t>
+  </si>
+  <si>
+    <t>March 15, evening</t>
+  </si>
+  <si>
+    <t>March 16, evening</t>
+  </si>
+  <si>
+    <t>March 17, evening</t>
   </si>
 </sst>
 </file>
@@ -189,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +292,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -562,11 +659,11 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -592,10 +689,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -670,10 +767,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -740,10 +837,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -821,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,10 +929,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -890,6 +987,384 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="7">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/GroupAssigning.xlsx
+++ b/GroupAssigning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App Dev\Project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\App Dev\Project 1 Bank System\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -247,7 +247,7 @@
     <t>March 16, evening</t>
   </si>
   <si>
-    <t>March 17, evening</t>
+    <t>March 18, evening</t>
   </si>
 </sst>
 </file>
@@ -1240,7 +1240,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
